--- a/Physics Experiment (2)/HW4/data.xlsx
+++ b/Physics Experiment (2)/HW4/data.xlsx
@@ -3,14 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20343"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E24D277-F3F0-4DBA-B95F-54EAB80AE37F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B18EC8-BFE9-4016-9523-D29161FCFDE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$C$2:$C$8</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$D$2:$D$8</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -21,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>U_e</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,6 +76,30 @@
     <t>\phi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>截距$\lg{U_e}$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$I_f$/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$T$/K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$U_e$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$\frac{1}{T}$/K^{-1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$\lg{\frac{U_e}{T^2}}$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -99,7 +129,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -107,12 +137,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -145,6 +193,919 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>  </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.001499887516871</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.001363551851197</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.001666550941998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.94694327069782547</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95472479097906293</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96189547366785044</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96801571399364172</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97451169273732841</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98136550907854447</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99122607569249488</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BC68-4F56-BA0A-7447EB69ECBF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$10:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.0141499815019577</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0028565600046386</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0037491215054963</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.9994444272966092</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.007497189607399</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.999545445153631</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.002499739637573</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$10:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.5050142400841071</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5114822886260015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5171958979499742</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5215303412787109</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5276299008713388</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5340261060561351</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5430742350335322</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-BC68-4F56-BA0A-7447EB69ECBF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$18:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.9974994789495399</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0092795635500229</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0124902496040527</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.9520947269340265</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.00649788887201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.999090871522064</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.002916312296774</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$18:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.0157787563890408</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0231701211213968</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0292619958041751</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0344680227550427</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0408791245157869</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0463780880482725</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0529631287555032</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-BC68-4F56-BA0A-7447EB69ECBF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$26:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.008327554319921</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0171219171395336</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9962491206815214</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.0088845036441665</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.000499987500625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.003181358134563</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.000833304400158</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$26:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.4502491083193609</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4584867637982066</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4610480916706581</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4658288153574364</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4714384073892992</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4776999283321306</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4823017672234426</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-BC68-4F56-BA0A-7447EB69ECBF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$34:$C$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.9983331017875292</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9978568147683617</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.004373804364711</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.0055538419355408</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.00499875062461</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.995908329919816</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.002083152519816</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$34:$D$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.8581761379823445</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8641549560020256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8692904042093983</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8743078331280389</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.879611907065851</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8853612200315122</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8910912264677235</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-BC68-4F56-BA0A-7447EB69ECBF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$42:$C$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.0016664352494633</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0021425292548853</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0566742518237628</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.9972217934204561</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.00499875062461</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.003181358134563</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.003332870498927</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$42:$D$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.2145259552811045</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2204480650703182</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2254126728659545</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2300655512060468</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2354021801580322</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.2410481506716442</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2465231999665738</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-BC68-4F56-BA0A-7447EB69ECBF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="711135471"/>
+        <c:axId val="822857519"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="711135471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="822857519"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="822857519"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="711135471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1800" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+              <a:t>  </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -195,12 +1156,10 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -209,51 +1168,15 @@
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
+                <a:prstDash val="solid"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.12378100458666957"/>
-                  <c:y val="-0.85225790633029175"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="zh-CN"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -370,7 +1293,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -432,7 +1355,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -475,12 +1398,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -543,6 +1461,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1059,20 +2017,577 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:colOff>385761</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76198</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D6C067B-F113-4A76-84E8-D7504ED3185E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1366,7 +2881,7 @@
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2112,6 +3627,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2120,7 +3636,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2286,6 +3802,218 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD47588D-E967-476E-995F-99EE68E701E9}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0.502</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1729.32</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.90451717649195429</v>
+      </c>
+      <c r="D2" s="1">
+        <f>EXP(C2)</f>
+        <v>2.4707387042949454</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1799.04</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.4682024304867722</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D7" si="0">EXP(C3)</f>
+        <v>4.3414241111052529</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1869.04</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.9801838277616319</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>7.2440745247752734</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>0.624</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1936.52</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2.420012533979794</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>11.246000271138634</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1995.16</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2.8258885756808216</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>16.875933870152046</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2062.08</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3.1830541633017417</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>24.120308531572579</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E21101-0BB5-43F9-A5FE-C7A3BD6B839C}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1729.32</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1799.04</v>
+      </c>
+      <c r="D1" s="1">
+        <v>1869.04</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1936.52</v>
+      </c>
+      <c r="F1" s="1">
+        <v>1995.16</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2062.08</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1">
+        <f t="shared" ref="B2:G2" si="0">1/B1</f>
+        <v>5.7826197580551891E-4</v>
+      </c>
+      <c r="C2" s="1">
+        <f t="shared" si="0"/>
+        <v>5.5585200996086798E-4</v>
+      </c>
+      <c r="D2" s="1">
+        <f t="shared" si="0"/>
+        <v>5.3503402816419124E-4</v>
+      </c>
+      <c r="E2" s="1">
+        <f t="shared" si="0"/>
+        <v>5.1639022576580669E-4</v>
+      </c>
+      <c r="F2" s="1">
+        <f t="shared" si="0"/>
+        <v>5.0121293530343432E-4</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" si="0"/>
+        <v>4.8494723774053386E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-5.5712335519590175</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-5.0418792086958835</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-4.5630533641810347</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-4.1540314393277544</v>
+      </c>
+      <c r="F3" s="1">
+        <v>-3.7740668828417072</v>
+      </c>
+      <c r="G3" s="1">
+        <v>-3.4455568568324311</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>